--- a/TestData/testdata.xlsx
+++ b/TestData/testdata.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -42,15 +42,14 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>rulewithwaheed@hotmail.com</t>
+    <t>testautomationqa007@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,13 +399,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,10 +438,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId28"/>
-    <hyperlink ref="C2" r:id="rId29"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>